--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_100ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_100ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -3002,28 +3002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9167.267979085333</v>
+        <v>9350.116647435938</v>
       </c>
       <c r="AB2" t="n">
-        <v>12543.06048030518</v>
+        <v>12793.24209505641</v>
       </c>
       <c r="AC2" t="n">
-        <v>11345.96839236033</v>
+        <v>11572.2730249318</v>
       </c>
       <c r="AD2" t="n">
-        <v>9167267.979085332</v>
+        <v>9350116.647435937</v>
       </c>
       <c r="AE2" t="n">
-        <v>12543060.48030518</v>
+        <v>12793242.09505641</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.269345521494822e-07</v>
+        <v>9.749668805455867e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.84166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>11345968.39236033</v>
+        <v>11572273.0249318</v>
       </c>
     </row>
     <row r="3">
@@ -3108,28 +3108,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3017.497710425783</v>
+        <v>3114.891923134616</v>
       </c>
       <c r="AB3" t="n">
-        <v>4128.673490008454</v>
+        <v>4261.932548566105</v>
       </c>
       <c r="AC3" t="n">
-        <v>3734.638686751529</v>
+        <v>3855.179687790695</v>
       </c>
       <c r="AD3" t="n">
-        <v>3017497.710425783</v>
+        <v>3114891.923134616</v>
       </c>
       <c r="AE3" t="n">
-        <v>4128673.490008454</v>
+        <v>4261932.548566105</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.94056489021753e-07</v>
+        <v>1.839264763022599e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.2875</v>
       </c>
       <c r="AH3" t="n">
-        <v>3734638.686751529</v>
+        <v>3855179.687790695</v>
       </c>
     </row>
     <row r="4">
@@ -3214,28 +3214,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2280.669277831189</v>
+        <v>2353.84297102181</v>
       </c>
       <c r="AB4" t="n">
-        <v>3120.512321956226</v>
+        <v>3220.631797175148</v>
       </c>
       <c r="AC4" t="n">
-        <v>2822.695005615157</v>
+        <v>2913.259218637747</v>
       </c>
       <c r="AD4" t="n">
-        <v>2280669.277831189</v>
+        <v>2353842.97102181</v>
       </c>
       <c r="AE4" t="n">
-        <v>3120512.321956226</v>
+        <v>3220631.797175148</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.167513073325666e-06</v>
+        <v>2.160204857421465e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.015625</v>
       </c>
       <c r="AH4" t="n">
-        <v>2822695.005615157</v>
+        <v>2913259.218637747</v>
       </c>
     </row>
     <row r="5">
@@ -3320,28 +3320,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1970.970640864551</v>
+        <v>2044.0589932006</v>
       </c>
       <c r="AB5" t="n">
-        <v>2696.768983918712</v>
+        <v>2796.77169201543</v>
       </c>
       <c r="AC5" t="n">
-        <v>2439.393137032551</v>
+        <v>2529.8517270232</v>
       </c>
       <c r="AD5" t="n">
-        <v>1970970.640864551</v>
+        <v>2044058.9932006</v>
       </c>
       <c r="AE5" t="n">
-        <v>2696768.983918712</v>
+        <v>2796771.69201543</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.260441453646602e-06</v>
+        <v>2.332146691006055e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.05625</v>
       </c>
       <c r="AH5" t="n">
-        <v>2439393.137032551</v>
+        <v>2529851.7270232</v>
       </c>
     </row>
     <row r="6">
@@ -3426,28 +3426,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1778.198896338022</v>
+        <v>1851.372500020092</v>
       </c>
       <c r="AB6" t="n">
-        <v>2433.010178568364</v>
+        <v>2533.129531317731</v>
       </c>
       <c r="AC6" t="n">
-        <v>2200.807101877032</v>
+        <v>2291.371204118393</v>
       </c>
       <c r="AD6" t="n">
-        <v>1778198.896338022</v>
+        <v>1851372.500020092</v>
       </c>
       <c r="AE6" t="n">
-        <v>2433010.178568364</v>
+        <v>2533129.531317731</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.318941109076265e-06</v>
+        <v>2.440386369604831e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.52083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2200807.101877031</v>
+        <v>2291371.204118393</v>
       </c>
     </row>
     <row r="7">
@@ -3532,28 +3532,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1644.421082550311</v>
+        <v>1705.399175127252</v>
       </c>
       <c r="AB7" t="n">
-        <v>2249.969471883405</v>
+        <v>2333.402388310759</v>
       </c>
       <c r="AC7" t="n">
-        <v>2035.23554333884</v>
+        <v>2110.705739321201</v>
       </c>
       <c r="AD7" t="n">
-        <v>1644421.082550311</v>
+        <v>1705399.175127252</v>
       </c>
       <c r="AE7" t="n">
-        <v>2249969.471883405</v>
+        <v>2333402.388310759</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.359934633205281e-06</v>
+        <v>2.516235121939635e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.17395833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2035235.54333884</v>
+        <v>2110705.739321201</v>
       </c>
     </row>
     <row r="8">
@@ -3638,28 +3638,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1536.696550336798</v>
+        <v>1609.784813164295</v>
       </c>
       <c r="AB8" t="n">
-        <v>2102.576014437928</v>
+        <v>2202.578600065097</v>
       </c>
       <c r="AC8" t="n">
-        <v>1901.909110603942</v>
+        <v>1992.367589813364</v>
       </c>
       <c r="AD8" t="n">
-        <v>1536696.550336797</v>
+        <v>1609784.813164295</v>
       </c>
       <c r="AE8" t="n">
-        <v>2102576.014437928</v>
+        <v>2202578.600065097</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.385756176873735e-06</v>
+        <v>2.564011738178995e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.96666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1901909.110603942</v>
+        <v>1992367.589813364</v>
       </c>
     </row>
     <row r="9">
@@ -3744,28 +3744,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1527.282574948375</v>
+        <v>1600.370837775873</v>
       </c>
       <c r="AB9" t="n">
-        <v>2089.695397996205</v>
+        <v>2189.697983623375</v>
       </c>
       <c r="AC9" t="n">
-        <v>1890.257802117359</v>
+        <v>1980.716281326781</v>
       </c>
       <c r="AD9" t="n">
-        <v>1527282.574948375</v>
+        <v>1600370.837775873</v>
       </c>
       <c r="AE9" t="n">
-        <v>2089695.397996205</v>
+        <v>2189697.983623375</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.38940328756137e-06</v>
+        <v>2.570759847817323e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.9375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1890257.802117359</v>
+        <v>1980716.281326781</v>
       </c>
     </row>
     <row r="10">
@@ -3850,28 +3850,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1533.999853281744</v>
+        <v>1607.088116109242</v>
       </c>
       <c r="AB10" t="n">
-        <v>2098.886274557326</v>
+        <v>2198.888860184496</v>
       </c>
       <c r="AC10" t="n">
-        <v>1898.571514318962</v>
+        <v>1989.029993528385</v>
       </c>
       <c r="AD10" t="n">
-        <v>1533999.853281744</v>
+        <v>1607088.116109242</v>
       </c>
       <c r="AE10" t="n">
-        <v>2098886.274557326</v>
+        <v>2198888.860184496</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.38940328756137e-06</v>
+        <v>2.570759847817323e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.9375</v>
       </c>
       <c r="AH10" t="n">
-        <v>1898571.514318963</v>
+        <v>1989029.993528385</v>
       </c>
     </row>
   </sheetData>
@@ -4147,28 +4147,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5477.048841728956</v>
+        <v>5618.128046466993</v>
       </c>
       <c r="AB2" t="n">
-        <v>7493.939855595471</v>
+        <v>7686.970647493309</v>
       </c>
       <c r="AC2" t="n">
-        <v>6778.728753587802</v>
+        <v>6953.336957627321</v>
       </c>
       <c r="AD2" t="n">
-        <v>5477048.841728956</v>
+        <v>5618128.046466992</v>
       </c>
       <c r="AE2" t="n">
-        <v>7493939.855595471</v>
+        <v>7686970.647493309</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.942108363696204e-07</v>
+        <v>1.323272993344026e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.64583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>6778728.753587802</v>
+        <v>6953336.957627321</v>
       </c>
     </row>
     <row r="3">
@@ -4253,28 +4253,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2316.764723329471</v>
+        <v>2410.703738682066</v>
       </c>
       <c r="AB3" t="n">
-        <v>3169.899702905645</v>
+        <v>3298.431208007942</v>
       </c>
       <c r="AC3" t="n">
-        <v>2867.368924242387</v>
+        <v>2983.633562892815</v>
       </c>
       <c r="AD3" t="n">
-        <v>2316764.72332947</v>
+        <v>2410703.738682066</v>
       </c>
       <c r="AE3" t="n">
-        <v>3169899.702905646</v>
+        <v>3298431.208007941</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.126734370507736e-06</v>
+        <v>2.14772960180576e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.95208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2867368.924242387</v>
+        <v>2983633.562892815</v>
       </c>
     </row>
     <row r="4">
@@ -4359,28 +4359,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1819.682394754392</v>
+        <v>1890.179416204675</v>
       </c>
       <c r="AB4" t="n">
-        <v>2489.769731224427</v>
+        <v>2586.226866081789</v>
       </c>
       <c r="AC4" t="n">
-        <v>2252.149602490133</v>
+        <v>2339.401003775148</v>
       </c>
       <c r="AD4" t="n">
-        <v>1819682.394754392</v>
+        <v>1890179.416204675</v>
       </c>
       <c r="AE4" t="n">
-        <v>2489769.731224427</v>
+        <v>2586226.86608179</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.282629977892479e-06</v>
+        <v>2.444890689224103e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.25520833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2252149.602490133</v>
+        <v>2339401.003775148</v>
       </c>
     </row>
     <row r="5">
@@ -4465,28 +4465,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1568.701739980462</v>
+        <v>1639.113420576172</v>
       </c>
       <c r="AB5" t="n">
-        <v>2146.366926877704</v>
+        <v>2242.707294612869</v>
       </c>
       <c r="AC5" t="n">
-        <v>1941.520679821397</v>
+        <v>2028.666458074473</v>
       </c>
       <c r="AD5" t="n">
-        <v>1568701.739980462</v>
+        <v>1639113.420576172</v>
       </c>
       <c r="AE5" t="n">
-        <v>2146366.926877704</v>
+        <v>2242707.294612869</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.368500840043417e-06</v>
+        <v>2.608573805139918e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.4875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1941520.679821397</v>
+        <v>2028666.458074474</v>
       </c>
     </row>
     <row r="6">
@@ -4571,28 +4571,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1424.924956603783</v>
+        <v>1483.74360677592</v>
       </c>
       <c r="AB6" t="n">
-        <v>1949.645188877716</v>
+        <v>2030.123460938941</v>
       </c>
       <c r="AC6" t="n">
-        <v>1763.573788395434</v>
+        <v>1836.3713271231</v>
       </c>
       <c r="AD6" t="n">
-        <v>1424924.956603783</v>
+        <v>1483743.60677592</v>
       </c>
       <c r="AE6" t="n">
-        <v>1949645.188877715</v>
+        <v>2030123.460938941</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.416793767790869e-06</v>
+        <v>2.700627578589938e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.09583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1763573.788395434</v>
+        <v>1836371.3271231</v>
       </c>
     </row>
     <row r="7">
@@ -4677,28 +4677,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1413.653713070996</v>
+        <v>1472.472363243133</v>
       </c>
       <c r="AB7" t="n">
-        <v>1934.223376223985</v>
+        <v>2014.701648285211</v>
       </c>
       <c r="AC7" t="n">
-        <v>1749.623811896726</v>
+        <v>1822.421350624393</v>
       </c>
       <c r="AD7" t="n">
-        <v>1413653.713070996</v>
+        <v>1472472.363243133</v>
       </c>
       <c r="AE7" t="n">
-        <v>1934223.376223986</v>
+        <v>2014701.648285211</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.422075806763246e-06</v>
+        <v>2.710695960061034e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.05520833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1749623.811896726</v>
+        <v>1822421.350624393</v>
       </c>
     </row>
   </sheetData>
@@ -4974,28 +4974,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1660.894683609841</v>
+        <v>1734.053529702156</v>
       </c>
       <c r="AB2" t="n">
-        <v>2272.509379617041</v>
+        <v>2372.608540381048</v>
       </c>
       <c r="AC2" t="n">
-        <v>2055.624273913336</v>
+        <v>2146.170111264081</v>
       </c>
       <c r="AD2" t="n">
-        <v>1660894.68360984</v>
+        <v>1734053.529702156</v>
       </c>
       <c r="AE2" t="n">
-        <v>2272509.379617041</v>
+        <v>2372608.540381048</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.233863872994735e-06</v>
+        <v>2.627807143682734e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.21666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2055624.273913336</v>
+        <v>2146170.111264081</v>
       </c>
     </row>
     <row r="3">
@@ -5080,28 +5080,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1137.337021329249</v>
+        <v>1210.410437058442</v>
       </c>
       <c r="AB3" t="n">
-        <v>1556.154688350831</v>
+        <v>1656.136959523093</v>
       </c>
       <c r="AC3" t="n">
-        <v>1407.63746897145</v>
+        <v>1498.07757250903</v>
       </c>
       <c r="AD3" t="n">
-        <v>1137337.021329249</v>
+        <v>1210410.437058442</v>
       </c>
       <c r="AE3" t="n">
-        <v>1556154.688350831</v>
+        <v>1656136.959523093</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.468612916116703e-06</v>
+        <v>3.127761171019124e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.94375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1407637.46897145</v>
+        <v>1498077.57250903</v>
       </c>
     </row>
   </sheetData>
@@ -5377,28 +5377,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2590.348462787717</v>
+        <v>2689.009286348948</v>
       </c>
       <c r="AB2" t="n">
-        <v>3544.229044895191</v>
+        <v>3679.221136300019</v>
       </c>
       <c r="AC2" t="n">
-        <v>3205.972799206966</v>
+        <v>3328.081434870703</v>
       </c>
       <c r="AD2" t="n">
-        <v>2590348.462787717</v>
+        <v>2689009.286348948</v>
       </c>
       <c r="AE2" t="n">
-        <v>3544229.044895191</v>
+        <v>3679221.136300019</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.012690655043373e-06</v>
+        <v>2.056112148961566e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.57083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>3205972.799206966</v>
+        <v>3328081.434870703</v>
       </c>
     </row>
     <row r="3">
@@ -5483,28 +5483,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1432.217949577787</v>
+        <v>1497.963474508968</v>
       </c>
       <c r="AB3" t="n">
-        <v>1959.62378360889</v>
+        <v>2049.579711307586</v>
       </c>
       <c r="AC3" t="n">
-        <v>1772.600040050512</v>
+        <v>1853.970700263581</v>
       </c>
       <c r="AD3" t="n">
-        <v>1432217.949577787</v>
+        <v>1497963.474508968</v>
       </c>
       <c r="AE3" t="n">
-        <v>1959623.78360889</v>
+        <v>2049579.711307587</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.37662132474477e-06</v>
+        <v>2.795017230810782e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.190625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1772600.040050511</v>
+        <v>1853970.700263581</v>
       </c>
     </row>
     <row r="4">
@@ -5589,28 +5589,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1227.1153711385</v>
+        <v>1292.77555521511</v>
       </c>
       <c r="AB4" t="n">
-        <v>1678.993387301107</v>
+        <v>1768.832547877606</v>
       </c>
       <c r="AC4" t="n">
-        <v>1518.752614899108</v>
+        <v>1600.017652080239</v>
       </c>
       <c r="AD4" t="n">
-        <v>1227115.3711385</v>
+        <v>1292775.55521511</v>
       </c>
       <c r="AE4" t="n">
-        <v>1678993.387301107</v>
+        <v>1768832.547877606</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.464422216726736e-06</v>
+        <v>2.973283397082506e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.46041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1518752.614899108</v>
+        <v>1600017.652080239</v>
       </c>
     </row>
     <row r="5">
@@ -5695,28 +5695,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1235.265795635201</v>
+        <v>1300.925979711811</v>
       </c>
       <c r="AB5" t="n">
-        <v>1690.145157668846</v>
+        <v>1779.984318245345</v>
       </c>
       <c r="AC5" t="n">
-        <v>1528.840075954558</v>
+        <v>1610.105113135689</v>
       </c>
       <c r="AD5" t="n">
-        <v>1235265.795635201</v>
+        <v>1300925.979711811</v>
       </c>
       <c r="AE5" t="n">
-        <v>1690145.157668846</v>
+        <v>1779984.318245345</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.464100011618546e-06</v>
+        <v>2.972629209316371e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.46145833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1528840.075954558</v>
+        <v>1610105.113135689</v>
       </c>
     </row>
   </sheetData>
@@ -5992,28 +5992,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1135.490929744879</v>
+        <v>1205.731006969262</v>
       </c>
       <c r="AB2" t="n">
-        <v>1553.628784401284</v>
+        <v>1649.734356833192</v>
       </c>
       <c r="AC2" t="n">
-        <v>1405.352633749719</v>
+        <v>1492.286025233743</v>
       </c>
       <c r="AD2" t="n">
-        <v>1135490.929744879</v>
+        <v>1205731.006969262</v>
       </c>
       <c r="AE2" t="n">
-        <v>1553628.784401284</v>
+        <v>1649734.356833192</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.41719164451171e-06</v>
+        <v>3.155808980728557e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.85520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1405352.633749719</v>
+        <v>1492286.025233743</v>
       </c>
     </row>
     <row r="3">
@@ -6098,28 +6098,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1096.386902411743</v>
+        <v>1166.626979636125</v>
       </c>
       <c r="AB3" t="n">
-        <v>1500.124929056156</v>
+        <v>1596.230501488063</v>
       </c>
       <c r="AC3" t="n">
-        <v>1356.955111265597</v>
+        <v>1443.888502749621</v>
       </c>
       <c r="AD3" t="n">
-        <v>1096386.902411743</v>
+        <v>1166626.979636125</v>
       </c>
       <c r="AE3" t="n">
-        <v>1500124.929056156</v>
+        <v>1596230.501488063</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.446749263655543e-06</v>
+        <v>3.221628025248257e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.59270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1356955.111265597</v>
+        <v>1443888.502749621</v>
       </c>
     </row>
   </sheetData>
@@ -6395,28 +6395,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6198.001849778332</v>
+        <v>6352.235162327883</v>
       </c>
       <c r="AB2" t="n">
-        <v>8480.379567410628</v>
+        <v>8691.408389934462</v>
       </c>
       <c r="AC2" t="n">
-        <v>7671.024043784114</v>
+        <v>7861.912571667078</v>
       </c>
       <c r="AD2" t="n">
-        <v>6198001.849778332</v>
+        <v>6352235.162327883</v>
       </c>
       <c r="AE2" t="n">
-        <v>8480379.567410627</v>
+        <v>8691408.389934462</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.499866170358683e-07</v>
+        <v>1.22897108058248e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.96875</v>
       </c>
       <c r="AH2" t="n">
-        <v>7671024.043784114</v>
+        <v>7861912.571667078</v>
       </c>
     </row>
     <row r="3">
@@ -6501,28 +6501,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2490.928735438625</v>
+        <v>2573.984096385748</v>
       </c>
       <c r="AB3" t="n">
-        <v>3408.19858784734</v>
+        <v>3521.838596839122</v>
       </c>
       <c r="AC3" t="n">
-        <v>3082.924898059822</v>
+        <v>3185.719264088179</v>
       </c>
       <c r="AD3" t="n">
-        <v>2490928.735438625</v>
+        <v>2573984.096385748</v>
       </c>
       <c r="AE3" t="n">
-        <v>3408198.58784734</v>
+        <v>3521838.596839122</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.09103828147185e-06</v>
+        <v>2.062895543683661e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.27916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>3082924.898059822</v>
+        <v>3185719.264088179</v>
       </c>
     </row>
     <row r="4">
@@ -6607,28 +6607,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1928.244191929916</v>
+        <v>1999.422322549446</v>
       </c>
       <c r="AB4" t="n">
-        <v>2638.308771528451</v>
+        <v>2735.697829999594</v>
       </c>
       <c r="AC4" t="n">
-        <v>2386.512285263392</v>
+        <v>2474.606668680452</v>
       </c>
       <c r="AD4" t="n">
-        <v>1928244.191929916</v>
+        <v>1999422.322549446</v>
       </c>
       <c r="AE4" t="n">
-        <v>2638308.771528451</v>
+        <v>2735697.829999594</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.252712357177274e-06</v>
+        <v>2.368583012185654e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.43645833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2386512.285263392</v>
+        <v>2474606.668680452</v>
       </c>
     </row>
     <row r="5">
@@ -6713,28 +6713,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1667.971382321828</v>
+        <v>1739.234764287379</v>
       </c>
       <c r="AB5" t="n">
-        <v>2282.192030996694</v>
+        <v>2379.697734120487</v>
       </c>
       <c r="AC5" t="n">
-        <v>2064.382826635002</v>
+        <v>2152.582722302774</v>
       </c>
       <c r="AD5" t="n">
-        <v>1667971.382321828</v>
+        <v>1739234.764287379</v>
       </c>
       <c r="AE5" t="n">
-        <v>2282192.030996695</v>
+        <v>2379697.734120487</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.339157885167778e-06</v>
+        <v>2.532031075825017e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.63333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2064382.826635002</v>
+        <v>2152582.722302774</v>
       </c>
     </row>
     <row r="6">
@@ -6819,28 +6819,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1506.867300986668</v>
+        <v>1566.253542133178</v>
       </c>
       <c r="AB6" t="n">
-        <v>2061.762319503476</v>
+        <v>2143.017194576185</v>
       </c>
       <c r="AC6" t="n">
-        <v>1864.990617431653</v>
+        <v>1938.490641269356</v>
       </c>
       <c r="AD6" t="n">
-        <v>1506867.300986668</v>
+        <v>1566253.542133178</v>
       </c>
       <c r="AE6" t="n">
-        <v>2061762.319503476</v>
+        <v>2143017.194576185</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.393148950227592e-06</v>
+        <v>2.634115420070363e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.18229166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1864990.617431653</v>
+        <v>1938490.641269356</v>
       </c>
     </row>
     <row r="7">
@@ -6925,28 +6925,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1444.520488364947</v>
+        <v>1503.906729511457</v>
       </c>
       <c r="AB7" t="n">
-        <v>1976.456659927188</v>
+        <v>2057.711534999898</v>
       </c>
       <c r="AC7" t="n">
-        <v>1787.826410278082</v>
+        <v>1861.326434115785</v>
       </c>
       <c r="AD7" t="n">
-        <v>1444520.488364947</v>
+        <v>1503906.729511457</v>
       </c>
       <c r="AE7" t="n">
-        <v>1976456.659927188</v>
+        <v>2057711.534999898</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.413040395249628e-06</v>
+        <v>2.671725441634438e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.025</v>
       </c>
       <c r="AH7" t="n">
-        <v>1787826.410278082</v>
+        <v>1861326.434115785</v>
       </c>
     </row>
     <row r="8">
@@ -7031,28 +7031,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1449.952607629481</v>
+        <v>1509.338848775991</v>
       </c>
       <c r="AB8" t="n">
-        <v>1983.889125153113</v>
+        <v>2065.144000225822</v>
       </c>
       <c r="AC8" t="n">
-        <v>1794.549531454374</v>
+        <v>1868.049555292077</v>
       </c>
       <c r="AD8" t="n">
-        <v>1449952.607629481</v>
+        <v>1509338.848775991</v>
       </c>
       <c r="AE8" t="n">
-        <v>1983889.125153113</v>
+        <v>2065144.000225822</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.41289083551262e-06</v>
+        <v>2.671442659517415e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.02708333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1794549.531454374</v>
+        <v>1868049.555292077</v>
       </c>
     </row>
   </sheetData>
@@ -7328,28 +7328,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1072.945406924696</v>
+        <v>1131.743030342039</v>
       </c>
       <c r="AB2" t="n">
-        <v>1468.051240764985</v>
+        <v>1548.500743092667</v>
       </c>
       <c r="AC2" t="n">
-        <v>1327.942490769232</v>
+        <v>1400.714005506345</v>
       </c>
       <c r="AD2" t="n">
-        <v>1072945.406924696</v>
+        <v>1131743.030342039</v>
       </c>
       <c r="AE2" t="n">
-        <v>1468051.240764985</v>
+        <v>1548500.743092667</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.415783739247296e-06</v>
+        <v>3.245778723218418e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.16875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1327942.490769232</v>
+        <v>1400714.005506345</v>
       </c>
     </row>
     <row r="3">
@@ -7434,28 +7434,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1085.0742884367</v>
+        <v>1143.871911854044</v>
       </c>
       <c r="AB3" t="n">
-        <v>1484.646511538197</v>
+        <v>1565.096013865879</v>
       </c>
       <c r="AC3" t="n">
-        <v>1342.953932191457</v>
+        <v>1415.72544692857</v>
       </c>
       <c r="AD3" t="n">
-        <v>1085074.2884367</v>
+        <v>1143871.911854044</v>
       </c>
       <c r="AE3" t="n">
-        <v>1484646.511538197</v>
+        <v>1565096.013865879</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.416141712379849e-06</v>
+        <v>3.246599400518852e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.16458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1342953.932191457</v>
+        <v>1415725.44692857</v>
       </c>
     </row>
   </sheetData>
@@ -7731,28 +7731,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3794.82477195921</v>
+        <v>3908.607086425187</v>
       </c>
       <c r="AB2" t="n">
-        <v>5192.246668848208</v>
+        <v>5347.928651222008</v>
       </c>
       <c r="AC2" t="n">
-        <v>4696.705934137109</v>
+        <v>4837.529846614181</v>
       </c>
       <c r="AD2" t="n">
-        <v>3794824.77195921</v>
+        <v>3908607.086425188</v>
       </c>
       <c r="AE2" t="n">
-        <v>5192246.668848208</v>
+        <v>5347928.651222008</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.401104475622858e-07</v>
+        <v>1.64660486695099e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.27916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4696705.934137109</v>
+        <v>4837529.846614181</v>
       </c>
     </row>
     <row r="3">
@@ -7837,28 +7837,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1871.492496933573</v>
+        <v>1939.864330442065</v>
       </c>
       <c r="AB3" t="n">
-        <v>2560.658598726373</v>
+        <v>2654.207957685105</v>
       </c>
       <c r="AC3" t="n">
-        <v>2316.272935970843</v>
+        <v>2400.894075407903</v>
       </c>
       <c r="AD3" t="n">
-        <v>1871492.496933572</v>
+        <v>1939864.330442065</v>
       </c>
       <c r="AE3" t="n">
-        <v>2560658.598726373</v>
+        <v>2654207.957685105</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.240340744068916e-06</v>
+        <v>2.43105071694763e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.05833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2316272.935970843</v>
+        <v>2400894.075407903</v>
       </c>
     </row>
     <row r="4">
@@ -7943,28 +7943,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1470.562530947297</v>
+        <v>1538.934274947239</v>
       </c>
       <c r="AB4" t="n">
-        <v>2012.088531482194</v>
+        <v>2105.637767971376</v>
       </c>
       <c r="AC4" t="n">
-        <v>1820.057626021523</v>
+        <v>1904.678654677355</v>
       </c>
       <c r="AD4" t="n">
-        <v>1470562.530947297</v>
+        <v>1538934.274947239</v>
       </c>
       <c r="AE4" t="n">
-        <v>2012088.531482194</v>
+        <v>2105637.767971376</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.385723544082008e-06</v>
+        <v>2.715998995792564e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.6875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1820057.626021523</v>
+        <v>1904678.654677355</v>
       </c>
     </row>
     <row r="5">
@@ -8049,28 +8049,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1319.53262453455</v>
+        <v>1376.509167376386</v>
       </c>
       <c r="AB5" t="n">
-        <v>1805.442750559052</v>
+        <v>1883.400570102919</v>
       </c>
       <c r="AC5" t="n">
-        <v>1633.13382840051</v>
+        <v>1703.651463061597</v>
       </c>
       <c r="AD5" t="n">
-        <v>1319532.62453455</v>
+        <v>1376509.167376386</v>
       </c>
       <c r="AE5" t="n">
-        <v>1805442.750559052</v>
+        <v>1883400.570102919</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.444032153712928e-06</v>
+        <v>2.830283064848018e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.21666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1633133.82840051</v>
+        <v>1703651.463061597</v>
       </c>
     </row>
     <row r="6">
@@ -8155,28 +8155,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1324.34969451275</v>
+        <v>1381.326237354586</v>
       </c>
       <c r="AB6" t="n">
-        <v>1812.033678217353</v>
+        <v>1889.991497761221</v>
       </c>
       <c r="AC6" t="n">
-        <v>1639.095727173529</v>
+        <v>1709.613361834616</v>
       </c>
       <c r="AD6" t="n">
-        <v>1324349.69451275</v>
+        <v>1381326.237354586</v>
       </c>
       <c r="AE6" t="n">
-        <v>1812033.678217353</v>
+        <v>1889991.497761221</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.445120581092705e-06</v>
+        <v>2.832416367470387e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.20729166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1639095.727173529</v>
+        <v>1709613.361834616</v>
       </c>
     </row>
   </sheetData>
@@ -8452,28 +8452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4842.351248933301</v>
+        <v>4970.285306658758</v>
       </c>
       <c r="AB2" t="n">
-        <v>6625.518608250813</v>
+        <v>6800.563630083085</v>
       </c>
       <c r="AC2" t="n">
-        <v>5993.188411252875</v>
+        <v>6151.527381878698</v>
       </c>
       <c r="AD2" t="n">
-        <v>4842351.2489333</v>
+        <v>4970285.306658758</v>
       </c>
       <c r="AE2" t="n">
-        <v>6625518.608250813</v>
+        <v>6800563.630083085</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.407201334141499e-07</v>
+        <v>1.4241848828503e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.42291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>5993188.411252875</v>
+        <v>6151527.381878698</v>
       </c>
     </row>
     <row r="3">
@@ -8558,28 +8558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2167.100788233045</v>
+        <v>2248.621929095079</v>
       </c>
       <c r="AB3" t="n">
-        <v>2965.122904199714</v>
+        <v>3076.663725586235</v>
       </c>
       <c r="AC3" t="n">
-        <v>2682.135735799026</v>
+        <v>2783.031257740828</v>
       </c>
       <c r="AD3" t="n">
-        <v>2167100.788233045</v>
+        <v>2248621.929095079</v>
       </c>
       <c r="AE3" t="n">
-        <v>2965122.904199713</v>
+        <v>3076663.725586235</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.162117066574072e-06</v>
+        <v>2.234406064661064e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.65625</v>
       </c>
       <c r="AH3" t="n">
-        <v>2682135.735799026</v>
+        <v>2783031.257740828</v>
       </c>
     </row>
     <row r="4">
@@ -8664,28 +8664,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1703.718827245302</v>
+        <v>1773.50883949531</v>
       </c>
       <c r="AB4" t="n">
-        <v>2331.103262206959</v>
+        <v>2426.59303588546</v>
       </c>
       <c r="AC4" t="n">
-        <v>2108.626038585903</v>
+        <v>2195.002402285267</v>
       </c>
       <c r="AD4" t="n">
-        <v>1703718.827245302</v>
+        <v>1773508.83949531</v>
       </c>
       <c r="AE4" t="n">
-        <v>2331103.262206959</v>
+        <v>2426593.03588546</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.316598805628359e-06</v>
+        <v>2.531428580335725e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.05416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2108626.038585903</v>
+        <v>2195002.402285267</v>
       </c>
     </row>
     <row r="5">
@@ -8770,28 +8770,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1471.112376647377</v>
+        <v>1540.817048042812</v>
       </c>
       <c r="AB5" t="n">
-        <v>2012.840854626522</v>
+        <v>2108.213861182825</v>
       </c>
       <c r="AC5" t="n">
-        <v>1820.738148500849</v>
+        <v>1907.008889168274</v>
       </c>
       <c r="AD5" t="n">
-        <v>1471112.376647376</v>
+        <v>1540817.048042812</v>
       </c>
       <c r="AE5" t="n">
-        <v>2012840.854626522</v>
+        <v>2108213.861182826</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.397343698822415e-06</v>
+        <v>2.686677035274158e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.35729166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1820738.148500849</v>
+        <v>1907008.889168274</v>
       </c>
     </row>
     <row r="6">
@@ -8876,28 +8876,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1380.314787573538</v>
+        <v>1438.544263412112</v>
       </c>
       <c r="AB6" t="n">
-        <v>1888.607587548776</v>
+        <v>1968.279725294283</v>
       </c>
       <c r="AC6" t="n">
-        <v>1708.361530070517</v>
+        <v>1780.42987081014</v>
       </c>
       <c r="AD6" t="n">
-        <v>1380314.787573538</v>
+        <v>1438544.263412112</v>
       </c>
       <c r="AE6" t="n">
-        <v>1888607.587548776</v>
+        <v>1968279.725294283</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.428879911824622e-06</v>
+        <v>2.747311809184074e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.10729166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1708361.530070517</v>
+        <v>1780429.87081014</v>
       </c>
     </row>
     <row r="7">
@@ -8982,28 +8982,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1384.561932729961</v>
+        <v>1442.791408568535</v>
       </c>
       <c r="AB7" t="n">
-        <v>1894.418718922614</v>
+        <v>1974.090856668121</v>
       </c>
       <c r="AC7" t="n">
-        <v>1713.618055222011</v>
+        <v>1785.686395961634</v>
       </c>
       <c r="AD7" t="n">
-        <v>1384561.932729961</v>
+        <v>1442791.408568535</v>
       </c>
       <c r="AE7" t="n">
-        <v>1894418.718922614</v>
+        <v>1974090.856668121</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.429794004955121e-06</v>
+        <v>2.749069338862622e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.09895833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1713618.05522201</v>
+        <v>1785686.395961634</v>
       </c>
     </row>
   </sheetData>
@@ -9279,28 +9279,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8020.880827100867</v>
+        <v>8178.088037321221</v>
       </c>
       <c r="AB2" t="n">
-        <v>10974.5230039282</v>
+        <v>11189.62084444433</v>
       </c>
       <c r="AC2" t="n">
-        <v>9927.129931272653</v>
+        <v>10121.69913578164</v>
       </c>
       <c r="AD2" t="n">
-        <v>8020880.827100866</v>
+        <v>8178088.037321221</v>
       </c>
       <c r="AE2" t="n">
-        <v>10974523.0039282</v>
+        <v>11189620.84444433</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.665860883782291e-07</v>
+        <v>1.055506909119815e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.03333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>9927129.931272654</v>
+        <v>10121699.13578163</v>
       </c>
     </row>
     <row r="3">
@@ -9385,28 +9385,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2827.056274721145</v>
+        <v>2923.713777381529</v>
       </c>
       <c r="AB3" t="n">
-        <v>3868.103115994171</v>
+        <v>4000.35417536218</v>
       </c>
       <c r="AC3" t="n">
-        <v>3498.936783520362</v>
+        <v>3618.565987397811</v>
       </c>
       <c r="AD3" t="n">
-        <v>2827056.274721145</v>
+        <v>2923713.777381529</v>
       </c>
       <c r="AE3" t="n">
-        <v>3868103.115994171</v>
+        <v>4000354.17536218</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.025237012243191e-06</v>
+        <v>1.909938793247691e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.940625</v>
       </c>
       <c r="AH3" t="n">
-        <v>3498936.783520361</v>
+        <v>3618565.98739781</v>
       </c>
     </row>
     <row r="4">
@@ -9491,28 +9491,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2153.864239191929</v>
+        <v>2238.428886412947</v>
       </c>
       <c r="AB4" t="n">
-        <v>2947.012073846328</v>
+        <v>3062.717154903235</v>
       </c>
       <c r="AC4" t="n">
-        <v>2665.753377675858</v>
+        <v>2770.415728189679</v>
       </c>
       <c r="AD4" t="n">
-        <v>2153864.239191929</v>
+        <v>2238428.886412947</v>
       </c>
       <c r="AE4" t="n">
-        <v>2947012.073846329</v>
+        <v>3062717.154903234</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.194786391921389e-06</v>
+        <v>2.225796427873995e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.82083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2665753.377675858</v>
+        <v>2770415.728189679</v>
       </c>
     </row>
     <row r="5">
@@ -9597,28 +9597,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1861.22322199242</v>
+        <v>1945.702528358864</v>
       </c>
       <c r="AB5" t="n">
-        <v>2546.607723703453</v>
+        <v>2662.196037637982</v>
       </c>
       <c r="AC5" t="n">
-        <v>2303.563056739584</v>
+        <v>2408.119784221419</v>
       </c>
       <c r="AD5" t="n">
-        <v>1861223.22199242</v>
+        <v>1945702.528358864</v>
       </c>
       <c r="AE5" t="n">
-        <v>2546607.723703453</v>
+        <v>2662196.037637982</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.285810733656692e-06</v>
+        <v>2.395367872656026e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.9125</v>
       </c>
       <c r="AH5" t="n">
-        <v>2303563.056739584</v>
+        <v>2408119.784221419</v>
       </c>
     </row>
     <row r="6">
@@ -9703,28 +9703,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1689.673432663701</v>
+        <v>1762.059973099326</v>
       </c>
       <c r="AB6" t="n">
-        <v>2311.885733701335</v>
+        <v>2410.928191794137</v>
       </c>
       <c r="AC6" t="n">
-        <v>2091.242604028885</v>
+        <v>2180.832588928273</v>
       </c>
       <c r="AD6" t="n">
-        <v>1689673.432663701</v>
+        <v>1762059.973099326</v>
       </c>
       <c r="AE6" t="n">
-        <v>2311885.733701335</v>
+        <v>2410928.191794137</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.342719328570363e-06</v>
+        <v>2.501384268666763e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.40729166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2091242.604028885</v>
+        <v>2180832.588928273</v>
       </c>
     </row>
     <row r="7">
@@ -9809,28 +9809,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1561.033078616443</v>
+        <v>1621.497445321842</v>
       </c>
       <c r="AB7" t="n">
-        <v>2135.874326081992</v>
+        <v>2218.604340107916</v>
       </c>
       <c r="AC7" t="n">
-        <v>1932.02947811917</v>
+        <v>2006.863855718763</v>
       </c>
       <c r="AD7" t="n">
-        <v>1561033.078616443</v>
+        <v>1621497.445321842</v>
       </c>
       <c r="AE7" t="n">
-        <v>2135874.326081992</v>
+        <v>2218604.340107915</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.3810995437447e-06</v>
+        <v>2.572883698534469e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.090625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1932029.47811917</v>
+        <v>2006863.855718763</v>
       </c>
     </row>
     <row r="8">
@@ -9915,28 +9915,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1493.348372936957</v>
+        <v>1565.820164718602</v>
       </c>
       <c r="AB8" t="n">
-        <v>2043.265125732848</v>
+        <v>2142.4242284783</v>
       </c>
       <c r="AC8" t="n">
-        <v>1848.25876987352</v>
+        <v>1937.95426702362</v>
       </c>
       <c r="AD8" t="n">
-        <v>1493348.372936957</v>
+        <v>1565820.164718602</v>
       </c>
       <c r="AE8" t="n">
-        <v>2043265.125732848</v>
+        <v>2142424.2284783</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.397422163991257e-06</v>
+        <v>2.603291502041424e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.96145833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1848258.76987352</v>
+        <v>1937954.26702362</v>
       </c>
     </row>
     <row r="9">
@@ -10021,28 +10021,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1497.290149380737</v>
+        <v>1569.761941162383</v>
       </c>
       <c r="AB9" t="n">
-        <v>2048.658438162133</v>
+        <v>2147.817540907585</v>
       </c>
       <c r="AC9" t="n">
-        <v>1853.137352134115</v>
+        <v>1942.832849284215</v>
       </c>
       <c r="AD9" t="n">
-        <v>1497290.149380737</v>
+        <v>1569761.941162383</v>
       </c>
       <c r="AE9" t="n">
-        <v>2048658.438162133</v>
+        <v>2147817.540907585</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.398304467788368e-06</v>
+        <v>2.604935167095854e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.95416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1853137.352134115</v>
+        <v>1942832.849284215</v>
       </c>
     </row>
   </sheetData>
@@ -10318,28 +10318,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2951.023388171106</v>
+        <v>3050.937147372495</v>
       </c>
       <c r="AB2" t="n">
-        <v>4037.720389659477</v>
+        <v>4174.42680288279</v>
       </c>
       <c r="AC2" t="n">
-        <v>3652.366022646384</v>
+        <v>3776.025367660313</v>
       </c>
       <c r="AD2" t="n">
-        <v>2951023.388171106</v>
+        <v>3050937.147372495</v>
       </c>
       <c r="AE2" t="n">
-        <v>4037720.389659477</v>
+        <v>4174426.80288279</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.518132780812855e-07</v>
+        <v>1.907907198333894e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.41145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3652366.022646384</v>
+        <v>3776025.367660313</v>
       </c>
     </row>
     <row r="3">
@@ -10424,28 +10424,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1575.119895847668</v>
+        <v>1641.757545436302</v>
       </c>
       <c r="AB3" t="n">
-        <v>2155.148530884269</v>
+        <v>2246.325102897054</v>
       </c>
       <c r="AC3" t="n">
-        <v>1949.464179866635</v>
+        <v>2031.938987813642</v>
       </c>
       <c r="AD3" t="n">
-        <v>1575119.895847668</v>
+        <v>1641757.545436302</v>
       </c>
       <c r="AE3" t="n">
-        <v>2155148.530884269</v>
+        <v>2246325.102897054</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.327893269621342e-06</v>
+        <v>2.661758546630956e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.48020833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1949464.179866635</v>
+        <v>2031938.987813642</v>
       </c>
     </row>
     <row r="4">
@@ -10530,28 +10530,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1270.982503177813</v>
+        <v>1337.534811911876</v>
       </c>
       <c r="AB4" t="n">
-        <v>1739.014332638576</v>
+        <v>1830.074137529163</v>
       </c>
       <c r="AC4" t="n">
-        <v>1573.045245453495</v>
+        <v>1655.414430368563</v>
       </c>
       <c r="AD4" t="n">
-        <v>1270982.503177813</v>
+        <v>1337534.811911876</v>
       </c>
       <c r="AE4" t="n">
-        <v>1739014.332638576</v>
+        <v>1830074.137529163</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.452139662765498e-06</v>
+        <v>2.910810113052277e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.4125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1573045.245453495</v>
+        <v>1655414.430368563</v>
       </c>
     </row>
     <row r="5">
@@ -10636,28 +10636,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1263.153429566381</v>
+        <v>1329.705738300444</v>
       </c>
       <c r="AB5" t="n">
-        <v>1728.302248729065</v>
+        <v>1819.362053619651</v>
       </c>
       <c r="AC5" t="n">
-        <v>1563.355507797803</v>
+        <v>1645.724692712871</v>
       </c>
       <c r="AD5" t="n">
-        <v>1263153.429566381</v>
+        <v>1329705.738300444</v>
       </c>
       <c r="AE5" t="n">
-        <v>1728302.248729065</v>
+        <v>1819362.053619651</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.457866769235651e-06</v>
+        <v>2.922290082823299e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.36666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1563355.507797803</v>
+        <v>1645724.692712871</v>
       </c>
     </row>
   </sheetData>
@@ -10933,28 +10933,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1945.576441805066</v>
+        <v>2030.653093005471</v>
       </c>
       <c r="AB2" t="n">
-        <v>2662.02352045253</v>
+        <v>2778.429147941878</v>
       </c>
       <c r="AC2" t="n">
-        <v>2407.963731834016</v>
+        <v>2513.259769612106</v>
       </c>
       <c r="AD2" t="n">
-        <v>1945576.441805066</v>
+        <v>2030653.09300547</v>
       </c>
       <c r="AE2" t="n">
-        <v>2662023.52045253</v>
+        <v>2778429.147941879</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.151886215952301e-06</v>
+        <v>2.409818000336706e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.98541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2407963.731834016</v>
+        <v>2513259.769612106</v>
       </c>
     </row>
     <row r="3">
@@ -11039,28 +11039,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1175.123757766024</v>
+        <v>1238.995251807256</v>
       </c>
       <c r="AB3" t="n">
-        <v>1607.856168176786</v>
+        <v>1695.247964135446</v>
       </c>
       <c r="AC3" t="n">
-        <v>1454.404632126298</v>
+        <v>1533.455877733819</v>
       </c>
       <c r="AD3" t="n">
-        <v>1175123.757766024</v>
+        <v>1238995.251807256</v>
       </c>
       <c r="AE3" t="n">
-        <v>1607856.168176786</v>
+        <v>1695247.964135446</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.464756475730454e-06</v>
+        <v>3.064362150046921e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.78541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1454404.632126298</v>
+        <v>1533455.877733819</v>
       </c>
     </row>
     <row r="4">
@@ -11145,28 +11145,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1174.251659468968</v>
+        <v>1238.123153510201</v>
       </c>
       <c r="AB4" t="n">
-        <v>1606.662924812493</v>
+        <v>1694.054720771152</v>
       </c>
       <c r="AC4" t="n">
-        <v>1453.325270233965</v>
+        <v>1532.376515841486</v>
       </c>
       <c r="AD4" t="n">
-        <v>1174251.659468968</v>
+        <v>1238123.153510201</v>
       </c>
       <c r="AE4" t="n">
-        <v>1606662.924812493</v>
+        <v>1694054.720771153</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.470059361489406e-06</v>
+        <v>3.075456118686077e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.74270833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1453325.270233965</v>
+        <v>1532376.515841486</v>
       </c>
     </row>
   </sheetData>
@@ -19831,28 +19831,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1379.078316020527</v>
+        <v>1450.765420240193</v>
       </c>
       <c r="AB2" t="n">
-        <v>1886.915792620672</v>
+        <v>1985.00125122585</v>
       </c>
       <c r="AC2" t="n">
-        <v>1706.831197675902</v>
+        <v>1795.555517775608</v>
       </c>
       <c r="AD2" t="n">
-        <v>1379078.316020527</v>
+        <v>1450765.420240193</v>
       </c>
       <c r="AE2" t="n">
-        <v>1886915.792620672</v>
+        <v>1985001.25122585</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.326827363716772e-06</v>
+        <v>2.884331320219624e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.459375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1706831.197675902</v>
+        <v>1795555.517775608</v>
       </c>
     </row>
     <row r="3">
@@ -19937,28 +19937,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1121.163166470381</v>
+        <v>1182.670226341724</v>
       </c>
       <c r="AB3" t="n">
-        <v>1534.024906592811</v>
+        <v>1618.181579408755</v>
       </c>
       <c r="AC3" t="n">
-        <v>1387.619722525071</v>
+        <v>1463.744600602094</v>
       </c>
       <c r="AD3" t="n">
-        <v>1121163.166470381</v>
+        <v>1182670.226341724</v>
       </c>
       <c r="AE3" t="n">
-        <v>1534024.906592811</v>
+        <v>1618181.579408755</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.461910046224371e-06</v>
+        <v>3.177981588996505e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.21458333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1387619.722525071</v>
+        <v>1463744.600602094</v>
       </c>
     </row>
   </sheetData>
@@ -20234,28 +20234,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1067.788927164602</v>
+        <v>1134.290317205865</v>
       </c>
       <c r="AB2" t="n">
-        <v>1460.995917669393</v>
+        <v>1551.986053358119</v>
       </c>
       <c r="AC2" t="n">
-        <v>1321.560517807674</v>
+        <v>1403.866682651725</v>
       </c>
       <c r="AD2" t="n">
-        <v>1067788.927164602</v>
+        <v>1134290.317205865</v>
       </c>
       <c r="AE2" t="n">
-        <v>1460995.917669393</v>
+        <v>1551986.053358119</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.352885986603764e-06</v>
+        <v>3.217875797709559e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.16666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1321560.517807674</v>
+        <v>1403866.682651725</v>
       </c>
     </row>
   </sheetData>
@@ -20531,28 +20531,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4293.512453369046</v>
+        <v>4408.659765034561</v>
       </c>
       <c r="AB2" t="n">
-        <v>5874.573155100969</v>
+        <v>6032.122786862602</v>
       </c>
       <c r="AC2" t="n">
-        <v>5313.912138193117</v>
+        <v>5456.42545422171</v>
       </c>
       <c r="AD2" t="n">
-        <v>4293512.453369046</v>
+        <v>4408659.765034561</v>
       </c>
       <c r="AE2" t="n">
-        <v>5874573.155100969</v>
+        <v>6032122.786862602</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.88582391261296e-07</v>
+        <v>1.530305793433458e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.32395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>5313912.138193117</v>
+        <v>5456425.454221711</v>
       </c>
     </row>
     <row r="3">
@@ -20637,28 +20637,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2016.230274179768</v>
+        <v>2096.722476087251</v>
       </c>
       <c r="AB3" t="n">
-        <v>2758.695210934693</v>
+        <v>2868.828192649838</v>
       </c>
       <c r="AC3" t="n">
-        <v>2495.409211856133</v>
+        <v>2595.031256368994</v>
       </c>
       <c r="AD3" t="n">
-        <v>2016230.274179768</v>
+        <v>2096722.476087251</v>
       </c>
       <c r="AE3" t="n">
-        <v>2758695.210934693</v>
+        <v>2868828.192649838</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.200491671535733e-06</v>
+        <v>2.329647961047384e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.35208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2495409.211856132</v>
+        <v>2595031.256368994</v>
       </c>
     </row>
     <row r="4">
@@ -20743,28 +20743,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1584.873519280214</v>
+        <v>1654.013057087135</v>
       </c>
       <c r="AB4" t="n">
-        <v>2168.493868764176</v>
+        <v>2263.09363461274</v>
       </c>
       <c r="AC4" t="n">
-        <v>1961.535857429582</v>
+        <v>2047.107154397165</v>
       </c>
       <c r="AD4" t="n">
-        <v>1584873.519280214</v>
+        <v>1654013.057087136</v>
       </c>
       <c r="AE4" t="n">
-        <v>2168493.868764176</v>
+        <v>2263093.63461274</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.349283705164938e-06</v>
+        <v>2.618390537096195e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.878125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1961535.857429582</v>
+        <v>2047107.154397165</v>
       </c>
     </row>
     <row r="5">
@@ -20849,28 +20849,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1379.919609194646</v>
+        <v>1448.888554800976</v>
       </c>
       <c r="AB5" t="n">
-        <v>1888.066887056737</v>
+        <v>1982.433241130454</v>
       </c>
       <c r="AC5" t="n">
-        <v>1707.87243327456</v>
+        <v>1793.232594959492</v>
       </c>
       <c r="AD5" t="n">
-        <v>1379919.609194646</v>
+        <v>1448888.554800976</v>
       </c>
       <c r="AE5" t="n">
-        <v>1888066.887056737</v>
+        <v>1982433.241130454</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.425449223930663e-06</v>
+        <v>2.766195682022938e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.24375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1707872.43327456</v>
+        <v>1793232.594959492</v>
       </c>
     </row>
     <row r="6">
@@ -20955,28 +20955,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1351.586211211902</v>
+        <v>1409.202582226221</v>
       </c>
       <c r="AB6" t="n">
-        <v>1849.299881955445</v>
+        <v>1928.133142632131</v>
       </c>
       <c r="AC6" t="n">
-        <v>1672.805296730303</v>
+        <v>1744.114821651182</v>
       </c>
       <c r="AD6" t="n">
-        <v>1351586.211211902</v>
+        <v>1409202.582226221</v>
       </c>
       <c r="AE6" t="n">
-        <v>1849299.881955446</v>
+        <v>1928133.142632131</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.437604932986203e-06</v>
+        <v>2.789784785960742e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.14895833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1672805.296730303</v>
+        <v>1744114.821651181</v>
       </c>
     </row>
     <row r="7">
@@ -21061,28 +21061,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1358.873997318055</v>
+        <v>1416.490368332373</v>
       </c>
       <c r="AB7" t="n">
-        <v>1859.271352420316</v>
+        <v>1938.104613097</v>
       </c>
       <c r="AC7" t="n">
-        <v>1681.825104049052</v>
+        <v>1753.134628969931</v>
       </c>
       <c r="AD7" t="n">
-        <v>1358873.997318055</v>
+        <v>1416490.368332373</v>
       </c>
       <c r="AE7" t="n">
-        <v>1859271.352420316</v>
+        <v>1938104.613097</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.437604932986203e-06</v>
+        <v>2.789784785960742e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.14895833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1681825.104049052</v>
+        <v>1753134.628969931</v>
       </c>
     </row>
   </sheetData>
@@ -21358,28 +21358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7041.972828470671</v>
+        <v>7197.631035423696</v>
       </c>
       <c r="AB2" t="n">
-        <v>9635.137893829331</v>
+        <v>9848.116319737908</v>
       </c>
       <c r="AC2" t="n">
-        <v>8715.573856242863</v>
+        <v>8908.225920099812</v>
       </c>
       <c r="AD2" t="n">
-        <v>7041972.828470671</v>
+        <v>7197631.035423696</v>
       </c>
       <c r="AE2" t="n">
-        <v>9635137.893829331</v>
+        <v>9848116.319737907</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.074776476703295e-07</v>
+        <v>1.139866337528206e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.42708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>8715573.856242863</v>
+        <v>8908225.920099812</v>
       </c>
     </row>
     <row r="3">
@@ -21464,28 +21464,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2656.666858026324</v>
+        <v>2752.476162804749</v>
       </c>
       <c r="AB3" t="n">
-        <v>3634.968799021767</v>
+        <v>3766.059316627828</v>
       </c>
       <c r="AC3" t="n">
-        <v>3288.052478553743</v>
+        <v>3406.631901146173</v>
       </c>
       <c r="AD3" t="n">
-        <v>2656666.858026324</v>
+        <v>2752476.162804749</v>
       </c>
       <c r="AE3" t="n">
-        <v>3634968.799021767</v>
+        <v>3766059.316627827</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.057340274722265e-06</v>
+        <v>1.983985075155878e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.60729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>3288052.478553743</v>
+        <v>3406631.901146173</v>
       </c>
     </row>
     <row r="4">
@@ -21570,28 +21570,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2040.721674158622</v>
+        <v>2124.544148232922</v>
       </c>
       <c r="AB4" t="n">
-        <v>2792.205424870072</v>
+        <v>2906.895031885094</v>
       </c>
       <c r="AC4" t="n">
-        <v>2525.721258005397</v>
+        <v>2629.465049894781</v>
       </c>
       <c r="AD4" t="n">
-        <v>2040721.674158622</v>
+        <v>2124544.148232922</v>
       </c>
       <c r="AE4" t="n">
-        <v>2792205.424870071</v>
+        <v>2906895.031885094</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.222962079078564e-06</v>
+        <v>2.294756541843456e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.62916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>2525721.258005397</v>
+        <v>2629465.049894781</v>
       </c>
     </row>
     <row r="5">
@@ -21676,28 +21676,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1762.883033531131</v>
+        <v>1834.804017755878</v>
       </c>
       <c r="AB5" t="n">
-        <v>2412.054339387797</v>
+        <v>2510.459802933985</v>
       </c>
       <c r="AC5" t="n">
-        <v>2181.851258576152</v>
+        <v>2270.865042794428</v>
       </c>
       <c r="AD5" t="n">
-        <v>1762883.033531131</v>
+        <v>1834804.017755878</v>
       </c>
       <c r="AE5" t="n">
-        <v>2412054.339387797</v>
+        <v>2510459.802933985</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.312371164151839e-06</v>
+        <v>2.462523054298791e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.76875</v>
       </c>
       <c r="AH5" t="n">
-        <v>2181851.258576152</v>
+        <v>2270865.042794428</v>
       </c>
     </row>
     <row r="6">
@@ -21782,28 +21782,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1596.372064834622</v>
+        <v>1668.122456858777</v>
       </c>
       <c r="AB6" t="n">
-        <v>2184.226686071745</v>
+        <v>2282.398737843087</v>
       </c>
       <c r="AC6" t="n">
-        <v>1975.767156734465</v>
+        <v>2064.56980567009</v>
       </c>
       <c r="AD6" t="n">
-        <v>1596372.064834622</v>
+        <v>1668122.456858777</v>
       </c>
       <c r="AE6" t="n">
-        <v>2184226.686071746</v>
+        <v>2282398.737843086</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.368270376544252e-06</v>
+        <v>2.56741190205279e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.28854166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1975767.156734465</v>
+        <v>2064569.80567009</v>
       </c>
     </row>
     <row r="7">
@@ -21888,28 +21888,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1483.831455084504</v>
+        <v>1543.765698113677</v>
       </c>
       <c r="AB7" t="n">
-        <v>2030.243658870338</v>
+        <v>2112.248334295044</v>
       </c>
       <c r="AC7" t="n">
-        <v>1836.480053532624</v>
+        <v>1910.658317829081</v>
       </c>
       <c r="AD7" t="n">
-        <v>1483831.455084504</v>
+        <v>1543765.698113677</v>
       </c>
       <c r="AE7" t="n">
-        <v>2030243.658870338</v>
+        <v>2112248.334295044</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.401631975452191e-06</v>
+        <v>2.630011346998811e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.01979166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1836480.053532624</v>
+        <v>1910658.317829081</v>
       </c>
     </row>
     <row r="8">
@@ -21994,28 +21994,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1464.265782619078</v>
+        <v>1536.101425989253</v>
       </c>
       <c r="AB8" t="n">
-        <v>2003.473042626593</v>
+        <v>2101.761739050584</v>
       </c>
       <c r="AC8" t="n">
-        <v>1812.264387330387</v>
+        <v>1901.172548516724</v>
       </c>
       <c r="AD8" t="n">
-        <v>1464265.782619078</v>
+        <v>1536101.425989253</v>
       </c>
       <c r="AE8" t="n">
-        <v>2003473.042626593</v>
+        <v>2101761.739050584</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.405338819775295e-06</v>
+        <v>2.636966840881702e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.990625</v>
       </c>
       <c r="AH8" t="n">
-        <v>1812264.387330387</v>
+        <v>1901172.548516724</v>
       </c>
     </row>
   </sheetData>
@@ -22291,28 +22291,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1088.665061639576</v>
+        <v>1161.861353999422</v>
       </c>
       <c r="AB2" t="n">
-        <v>1489.559565848105</v>
+        <v>1589.709962247361</v>
       </c>
       <c r="AC2" t="n">
-        <v>1347.398091493542</v>
+        <v>1437.990274622418</v>
       </c>
       <c r="AD2" t="n">
-        <v>1088665.061639576</v>
+        <v>1161861.353999422</v>
       </c>
       <c r="AE2" t="n">
-        <v>1489559.565848105</v>
+        <v>1589709.962247361</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.218395301728048e-06</v>
+        <v>3.047114186173015e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.2875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1347398.091493542</v>
+        <v>1437990.274622418</v>
       </c>
     </row>
   </sheetData>
@@ -22588,28 +22588,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2256.453961841421</v>
+        <v>2342.965537636165</v>
       </c>
       <c r="AB2" t="n">
-        <v>3087.37985831468</v>
+        <v>3205.748812938415</v>
       </c>
       <c r="AC2" t="n">
-        <v>2792.724657801856</v>
+        <v>2899.796645528168</v>
       </c>
       <c r="AD2" t="n">
-        <v>2256453.961841421</v>
+        <v>2342965.537636165</v>
       </c>
       <c r="AE2" t="n">
-        <v>3087379.85831468</v>
+        <v>3205748.812938415</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.079084712718259e-06</v>
+        <v>2.222141298809984e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.76354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2792724.657801856</v>
+        <v>2899796.645528168</v>
       </c>
     </row>
     <row r="3">
@@ -22694,28 +22694,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1276.506153637566</v>
+        <v>1352.033100748823</v>
       </c>
       <c r="AB3" t="n">
-        <v>1746.572034883869</v>
+        <v>1849.911335935236</v>
       </c>
       <c r="AC3" t="n">
-        <v>1579.881651203799</v>
+        <v>1673.358394400443</v>
       </c>
       <c r="AD3" t="n">
-        <v>1276506.153637566</v>
+        <v>1352033.100748823</v>
       </c>
       <c r="AE3" t="n">
-        <v>1746572.034883869</v>
+        <v>1849911.335935236</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.429199365270915e-06</v>
+        <v>2.943126611256807e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.90208333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1579881.651203799</v>
+        <v>1673358.394400443</v>
       </c>
     </row>
     <row r="4">
@@ -22800,28 +22800,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1200.60812349573</v>
+        <v>1265.491805341788</v>
       </c>
       <c r="AB4" t="n">
-        <v>1642.725001659037</v>
+        <v>1731.501717626833</v>
       </c>
       <c r="AC4" t="n">
-        <v>1485.945633079718</v>
+        <v>1566.249623874451</v>
       </c>
       <c r="AD4" t="n">
-        <v>1200608.12349573</v>
+        <v>1265491.805341788</v>
       </c>
       <c r="AE4" t="n">
-        <v>1642725.001659037</v>
+        <v>1731501.717626833</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.468228004244835e-06</v>
+        <v>3.023497641888705e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.58645833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1485945.633079718</v>
+        <v>1566249.623874451</v>
       </c>
     </row>
   </sheetData>
@@ -23097,28 +23097,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3351.969776417708</v>
+        <v>3453.236291030648</v>
       </c>
       <c r="AB2" t="n">
-        <v>4586.312926564766</v>
+        <v>4724.870239421521</v>
       </c>
       <c r="AC2" t="n">
-        <v>4148.601657783872</v>
+        <v>4273.935255167982</v>
       </c>
       <c r="AD2" t="n">
-        <v>3351969.776417708</v>
+        <v>3453236.291030648</v>
       </c>
       <c r="AE2" t="n">
-        <v>4586312.926564766</v>
+        <v>4724870.23942152</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.941252203705841e-07</v>
+        <v>1.77142668054252e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.31666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4148601.657783872</v>
+        <v>4273935.255167983</v>
       </c>
     </row>
     <row r="3">
@@ -23203,28 +23203,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1718.477537250272</v>
+        <v>1797.221347697115</v>
       </c>
       <c r="AB3" t="n">
-        <v>2351.296780344091</v>
+        <v>2459.0375357292</v>
       </c>
       <c r="AC3" t="n">
-        <v>2126.892315693807</v>
+        <v>2224.350444600062</v>
       </c>
       <c r="AD3" t="n">
-        <v>1718477.537250272</v>
+        <v>1797221.347697115</v>
       </c>
       <c r="AE3" t="n">
-        <v>2351296.78034409</v>
+        <v>2459037.5357292</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.282307947484172e-06</v>
+        <v>2.540488131968489e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.771875</v>
       </c>
       <c r="AH3" t="n">
-        <v>2126892.315693807</v>
+        <v>2224350.444600062</v>
       </c>
     </row>
     <row r="4">
@@ -23309,28 +23309,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1357.969736054815</v>
+        <v>1425.537580027456</v>
       </c>
       <c r="AB4" t="n">
-        <v>1858.03410226676</v>
+        <v>1950.483407273023</v>
       </c>
       <c r="AC4" t="n">
-        <v>1680.70593531366</v>
+        <v>1764.332008403541</v>
       </c>
       <c r="AD4" t="n">
-        <v>1357969.736054815</v>
+        <v>1425537.580027456</v>
       </c>
       <c r="AE4" t="n">
-        <v>1858034.10226676</v>
+        <v>1950483.407273023</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.422864998127974e-06</v>
+        <v>2.818957527503044e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.509375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1680705.93531366</v>
+        <v>1764332.008403541</v>
       </c>
     </row>
     <row r="5">
@@ -23415,28 +23415,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1290.828322248067</v>
+        <v>1358.225574020116</v>
       </c>
       <c r="AB5" t="n">
-        <v>1766.168257826243</v>
+        <v>1858.38415105766</v>
       </c>
       <c r="AC5" t="n">
-        <v>1597.607638132024</v>
+        <v>1681.022575939253</v>
       </c>
       <c r="AD5" t="n">
-        <v>1290828.322248067</v>
+        <v>1358225.574020117</v>
       </c>
       <c r="AE5" t="n">
-        <v>1766168.257826243</v>
+        <v>1858384.15105766</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.45147952074226e-06</v>
+        <v>2.875648165072718e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.28229166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1597607.638132024</v>
+        <v>1681022.575939253</v>
       </c>
     </row>
     <row r="6">
@@ -23521,28 +23521,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1298.279184064181</v>
+        <v>1365.67643583623</v>
       </c>
       <c r="AB6" t="n">
-        <v>1776.362855671873</v>
+        <v>1868.57874890329</v>
       </c>
       <c r="AC6" t="n">
-        <v>1606.829277867475</v>
+        <v>1690.244215674705</v>
       </c>
       <c r="AD6" t="n">
-        <v>1298279.184064181</v>
+        <v>1365676.435836229</v>
       </c>
       <c r="AE6" t="n">
-        <v>1776362.855671873</v>
+        <v>1868578.74890329</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.45147952074226e-06</v>
+        <v>2.875648165072718e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.28333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1606829.277867475</v>
+        <v>1690244.215674705</v>
       </c>
     </row>
   </sheetData>
